--- a/Resources/Full_Picture/ETL-Full_Picture.xlsx
+++ b/Resources/Full_Picture/ETL-Full_Picture.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nateb\Documents\Data Bootcamp\Homework\GitHub\NFL-ETL-Project\Resources\Full_Picture\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24CBB0-9D5F-4203-9636-1A6DA3EABC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="420">
   <si>
     <t>Extract</t>
   </si>
@@ -559,8 +568,11 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/Wikipedia:WikiProject_National_Football_League/National_Football_League_team_abbreviations</t>
     </r>
@@ -617,9 +629,6 @@
     <t>PASS_CMP</t>
   </si>
   <si>
-    <t>VARCHAR(50) Primary Key</t>
-  </si>
-  <si>
     <t>Abbreviation/Acronym</t>
   </si>
   <si>
@@ -632,9 +641,6 @@
     <t>TM</t>
   </si>
   <si>
-    <t>VARCHAR(4)</t>
-  </si>
-  <si>
     <t>PCT</t>
   </si>
   <si>
@@ -1284,68 +1290,97 @@
   </si>
   <si>
     <t>Converted</t>
+  </si>
+  <si>
+    <t>VARCHAR(4) Primary Key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1353,7 +1388,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1381,118 +1416,95 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1682,29 +1694,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.43"/>
-    <col customWidth="1" min="2" max="2" width="5.43"/>
-    <col customWidth="1" min="3" max="3" width="21.43"/>
-    <col customWidth="1" min="4" max="4" width="29.29"/>
-    <col customWidth="1" min="5" max="5" width="4.86"/>
-    <col customWidth="1" min="6" max="6" width="23.57"/>
-    <col customWidth="1" min="7" max="7" width="30.71"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1756,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1769,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1766,7 +1783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1781,7 +1798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1793,7 +1810,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1802,7 +1819,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1814,7 +1831,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -1826,13 +1843,13 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>69</v>
       </c>
@@ -1856,7 +1873,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1886,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -1883,7 +1900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -1917,7 +1934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -1934,7 +1951,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
@@ -1951,7 +1968,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -1968,7 +1985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>114</v>
       </c>
@@ -1982,7 +1999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -1999,7 +2016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
@@ -2012,7 +2029,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -2023,13 +2040,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2040,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>127</v>
       </c>
@@ -2053,7 +2070,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2083,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>134</v>
       </c>
@@ -2094,7 +2111,7 @@
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>140</v>
       </c>
@@ -2115,7 +2132,7 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>143</v>
       </c>
@@ -2130,7 +2147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>146</v>
       </c>
@@ -2147,7 +2164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>148</v>
       </c>
@@ -2162,7 +2179,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>150</v>
       </c>
@@ -2179,7 +2196,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>152</v>
       </c>
@@ -2194,7 +2211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>154</v>
       </c>
@@ -2211,7 +2228,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>156</v>
       </c>
@@ -2226,7 +2243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>160</v>
       </c>
@@ -2243,7 +2260,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>134</v>
       </c>
@@ -2256,7 +2273,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>164</v>
       </c>
@@ -2265,7 +2282,7 @@
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>167</v>
       </c>
@@ -2274,7 +2291,7 @@
       </c>
       <c r="D44" s="20"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>168</v>
       </c>
@@ -2285,7 +2302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>170</v>
       </c>
@@ -2294,7 +2311,7 @@
       </c>
       <c r="D46" s="20"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>171</v>
       </c>
@@ -2305,7 +2322,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>172</v>
       </c>
@@ -2314,7 +2331,7 @@
       </c>
       <c r="D48" s="20"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>174</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>175</v>
       </c>
@@ -2334,7 +2351,7 @@
       </c>
       <c r="D50" s="20"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>177</v>
       </c>
@@ -2345,7 +2362,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>163</v>
       </c>
@@ -2356,13 +2373,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C53" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D53" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>180</v>
       </c>
@@ -2397,7 +2414,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
@@ -2410,7 +2427,7 @@
       </c>
       <c r="G59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>194</v>
       </c>
@@ -2424,40 +2441,40 @@
         <v>134</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G61" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="C62" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D62" s="7"/>
       <c r="F62" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -2479,12 +2496,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -2492,7 +2509,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
@@ -2501,11 +2518,11 @@
       </c>
       <c r="D68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>194</v>
       </c>
@@ -2519,46 +2536,46 @@
         <v>134</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="F70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="9" t="s">
+    </row>
+    <row r="71" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70" s="9" t="s">
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G71" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>66</v>
@@ -2570,50 +2587,51 @@
         <v>118</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G73" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A15"/>
-    <hyperlink r:id="rId3" ref="A30"/>
-    <hyperlink r:id="rId4" ref="A58"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A58" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G425"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.14"/>
-    <col customWidth="1" min="2" max="2" width="1.71"/>
-    <col customWidth="1" min="3" max="3" width="12.29"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="2.43"/>
-    <col customWidth="1" min="6" max="6" width="10.86"/>
-    <col customWidth="1" min="7" max="7" width="13.43"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="2.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2648,7 +2666,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2661,7 +2679,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2740,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2833,7 +2851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -2848,7 +2866,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -2867,7 +2885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -2886,7 +2904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -2894,7 +2912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -2902,7 +2920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -2910,7 +2928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -2918,7 +2936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>59</v>
       </c>
@@ -2935,7 +2953,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -2970,7 +2988,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -2983,7 +3001,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>43</v>
       </c>
@@ -3000,7 +3018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>48</v>
       </c>
@@ -3017,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>71</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>73</v>
       </c>
@@ -3051,7 +3069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>75</v>
       </c>
@@ -3068,7 +3086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>78</v>
       </c>
@@ -3085,7 +3103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>80</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>82</v>
       </c>
@@ -3119,7 +3137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>84</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>87</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>73</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>93</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>82</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>101</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>105</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>107</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>111</v>
       </c>
@@ -3272,7 +3290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>115</v>
       </c>
@@ -3289,7 +3307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>119</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>124</v>
       </c>
@@ -3319,15 +3337,15 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>64</v>
       </c>
@@ -3362,7 +3380,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
@@ -3375,7 +3393,7 @@
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>43</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>48</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>84</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>87</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>73</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
@@ -3477,7 +3495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>78</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>80</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>82</v>
       </c>
@@ -3528,7 +3546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>71</v>
       </c>
@@ -3545,7 +3563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>73</v>
       </c>
@@ -3562,7 +3580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>82</v>
       </c>
@@ -3579,7 +3597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>101</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>105</v>
       </c>
@@ -3613,7 +3631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>107</v>
       </c>
@@ -3630,7 +3648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>111</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>115</v>
       </c>
@@ -3664,7 +3682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>119</v>
       </c>
@@ -3681,7 +3699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>158</v>
       </c>
@@ -3694,15 +3712,15 @@
       </c>
       <c r="G77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>64</v>
       </c>
@@ -3737,7 +3755,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3768,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>43</v>
       </c>
@@ -3767,7 +3785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>48</v>
       </c>
@@ -3784,7 +3802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>176</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>178</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>181</v>
       </c>
@@ -3886,7 +3904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>182</v>
       </c>
@@ -3903,7 +3921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>183</v>
       </c>
@@ -3920,7 +3938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>105</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>107</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
@@ -3971,7 +3989,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>115</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>119</v>
       </c>
@@ -4005,7 +4023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
@@ -4018,15 +4036,15 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
@@ -4048,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>64</v>
       </c>
@@ -4061,7 +4079,7 @@
       </c>
       <c r="G104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>10</v>
       </c>
@@ -4074,7 +4092,7 @@
       </c>
       <c r="G105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>43</v>
       </c>
@@ -4091,7 +4109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>48</v>
       </c>
@@ -4108,7 +4126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>195</v>
       </c>
@@ -4125,7 +4143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>71</v>
       </c>
@@ -4133,33 +4151,33 @@
         <v>18</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="F110" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>73</v>
       </c>
@@ -4167,16 +4185,16 @@
         <v>18</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>75</v>
       </c>
@@ -4184,16 +4202,16 @@
         <v>18</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G112" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>82</v>
       </c>
@@ -4201,16 +4219,16 @@
         <v>18</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>53</v>
       </c>
@@ -4218,33 +4236,33 @@
         <v>18</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>71</v>
       </c>
@@ -4261,7 +4279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>73</v>
       </c>
@@ -4278,7 +4296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>82</v>
       </c>
@@ -4295,7 +4313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>101</v>
       </c>
@@ -4312,7 +4330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>107</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>111</v>
       </c>
@@ -4363,7 +4381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>115</v>
       </c>
@@ -4380,7 +4398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>119</v>
       </c>
@@ -4397,30 +4415,30 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -4442,20 +4460,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>10</v>
       </c>
@@ -4464,13 +4482,13 @@
       </c>
       <c r="D131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>43</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>48</v>
       </c>
@@ -4495,16 +4513,16 @@
         <v>14</v>
       </c>
       <c r="D133" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="134">
+    </row>
+    <row r="134" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>178</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>53</v>
       </c>
@@ -4538,7 +4556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>182</v>
       </c>
@@ -4555,7 +4573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>181</v>
       </c>
@@ -4572,7 +4590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>183</v>
       </c>
@@ -4589,41 +4607,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="5" t="s">
+      <c r="F140" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="G140" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>105</v>
       </c>
@@ -4640,7 +4658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>107</v>
       </c>
@@ -4657,7 +4675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>111</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>115</v>
       </c>
@@ -4691,7 +4709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>119</v>
       </c>
@@ -4708,30 +4726,30 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D146" s="7"/>
       <c r="F146" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -4742,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
@@ -4753,20 +4771,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D151" s="3"/>
       <c r="F151" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>10</v>
       </c>
@@ -4775,11 +4793,11 @@
       </c>
       <c r="D152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>43</v>
       </c>
@@ -4796,7 +4814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>48</v>
       </c>
@@ -4813,7 +4831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>173</v>
       </c>
@@ -4830,7 +4848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>176</v>
       </c>
@@ -4847,7 +4865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>178</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>179</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>53</v>
       </c>
@@ -4898,7 +4916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>181</v>
       </c>
@@ -4915,7 +4933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>182</v>
       </c>
@@ -4932,7 +4950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>183</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>105</v>
       </c>
@@ -4966,7 +4984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>107</v>
       </c>
@@ -4983,7 +5001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>111</v>
       </c>
@@ -5000,7 +5018,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>115</v>
       </c>
@@ -5017,7 +5035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>119</v>
       </c>
@@ -5034,25 +5052,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D168" s="7"/>
       <c r="F168" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G168" s="7"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
@@ -5074,20 +5092,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D173" s="3"/>
       <c r="F173" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>10</v>
       </c>
@@ -5096,11 +5114,11 @@
       </c>
       <c r="D174" s="4"/>
       <c r="F174" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>43</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>48</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>173</v>
       </c>
@@ -5151,7 +5169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -5168,7 +5186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
@@ -5185,7 +5203,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>53</v>
       </c>
@@ -5219,7 +5237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
@@ -5236,7 +5254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
@@ -5253,7 +5271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
@@ -5270,7 +5288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>105</v>
       </c>
@@ -5287,7 +5305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>107</v>
       </c>
@@ -5304,7 +5322,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>111</v>
       </c>
@@ -5321,7 +5339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>115</v>
       </c>
@@ -5338,7 +5356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>119</v>
       </c>
@@ -5355,25 +5373,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D190" s="7"/>
       <c r="F190" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G190" s="7"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -5384,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
@@ -5395,20 +5413,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D195" s="3"/>
       <c r="F195" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>10</v>
       </c>
@@ -5417,11 +5435,11 @@
       </c>
       <c r="D196" s="4"/>
       <c r="F196" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>43</v>
       </c>
@@ -5438,7 +5456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>48</v>
       </c>
@@ -5455,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>84</v>
       </c>
@@ -5472,7 +5490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>87</v>
       </c>
@@ -5489,7 +5507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>73</v>
       </c>
@@ -5506,7 +5524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>93</v>
       </c>
@@ -5523,7 +5541,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>78</v>
       </c>
@@ -5540,7 +5558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>80</v>
       </c>
@@ -5557,7 +5575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>82</v>
       </c>
@@ -5574,7 +5592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>71</v>
       </c>
@@ -5591,7 +5609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>73</v>
       </c>
@@ -5608,7 +5626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>82</v>
       </c>
@@ -5625,7 +5643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>101</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>105</v>
       </c>
@@ -5659,7 +5677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>107</v>
       </c>
@@ -5676,7 +5694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>111</v>
       </c>
@@ -5693,7 +5711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>115</v>
       </c>
@@ -5710,7 +5728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>119</v>
       </c>
@@ -5727,25 +5745,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D215" s="7"/>
       <c r="F215" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G215" s="7"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
@@ -5756,7 +5774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>3</v>
       </c>
@@ -5767,20 +5785,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D221" s="3"/>
       <c r="F221" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>10</v>
       </c>
@@ -5789,11 +5807,11 @@
       </c>
       <c r="D222" s="4"/>
       <c r="F222" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>13</v>
       </c>
@@ -5810,262 +5828,262 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D224" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F224" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D224" s="25" t="s">
+      <c r="C225" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D225" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="F224" s="25" t="s">
+      <c r="F225" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="5" t="s">
+      <c r="G225" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D225" s="25" t="s">
+      <c r="C226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F225" s="25" t="s">
+      <c r="F226" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="5" t="s">
+      <c r="G226" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D226" s="25" t="s">
+      <c r="C227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D227" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="F226" s="25" t="s">
+      <c r="F227" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D227" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="F227" s="25" t="s">
-        <v>261</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D228" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F228" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D228" s="25" t="s">
+      <c r="C229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D229" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="F228" s="25" t="s">
+      <c r="F229" s="26" t="s">
         <v>263</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D229" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F229" s="26" t="s">
-        <v>265</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F230" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F231" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F232" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F233" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D234" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D234" s="25" t="s">
+      <c r="C235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D235" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="F234" s="25" t="s">
+      <c r="F235" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="5" t="s">
+      <c r="G235" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D235" s="25" t="s">
+      <c r="C236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D236" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="F235" s="25" t="s">
+      <c r="F236" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D236" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F236" s="26" t="s">
-        <v>279</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F237" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="G237" s="7"/>
+    </row>
+    <row r="238" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="C238" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G237" s="7"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D239" s="7"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="242">
+    </row>
+    <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>0</v>
       </c>
@@ -6076,7 +6094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
@@ -6087,20 +6105,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D244" s="3"/>
       <c r="F244" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>10</v>
       </c>
@@ -6109,11 +6127,11 @@
       </c>
       <c r="D245" s="4"/>
       <c r="F245" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>13</v>
       </c>
@@ -6130,77 +6148,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D248" s="1" t="s">
+      <c r="C249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F249" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="5" t="s">
+      <c r="G249" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="C250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F250" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="5" t="s">
+      <c r="G250" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>76</v>
@@ -6215,126 +6233,126 @@
         <v>53</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A253" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="C253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F253" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="5" t="s">
+      <c r="G253" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D253" s="1" t="s">
+      <c r="C254" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="F254" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="5" t="s">
+      <c r="G254" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="C255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="F255" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G254" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="5" t="s">
+      <c r="G255" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A256" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D255" s="1" t="s">
+      <c r="C256" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F256" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A258" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F257" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G257" s="7"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="C258" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D259" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>0</v>
       </c>
@@ -6345,7 +6363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
@@ -6356,20 +6374,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D265" s="3"/>
       <c r="F265" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>10</v>
       </c>
@@ -6378,11 +6396,11 @@
       </c>
       <c r="D266" s="4"/>
       <c r="F266" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>13</v>
       </c>
@@ -6399,245 +6417,245 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A270" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D269" s="1" t="s">
+      <c r="C270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F269" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G269" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="5" t="s">
+      <c r="G270" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A271" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D270" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="F271" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D272" s="1" t="s">
+      <c r="C273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F272" s="1" t="s">
+      <c r="F273" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G272" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="5" t="s">
+      <c r="G273" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A274" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D273" s="1" t="s">
+      <c r="C274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F273" s="1" t="s">
+      <c r="F274" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G273" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="5" t="s">
+      <c r="G274" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D274" s="1" t="s">
+      <c r="C275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F274" s="1" t="s">
+      <c r="F275" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G274" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="5" t="s">
+      <c r="G275" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D275" s="1" t="s">
+      <c r="C276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F275" s="1" t="s">
+      <c r="F276" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A278" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D277" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F277" s="1" t="s">
+      <c r="F278" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G277" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="5" t="s">
+      <c r="G278" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D278" s="1" t="s">
+      <c r="C279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F278" s="1" t="s">
+      <c r="F279" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G278" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="5" t="s">
+      <c r="G279" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A280" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F280" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D279" s="1" t="s">
+      <c r="G280" s="7"/>
+    </row>
+    <row r="281" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="284" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F279" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F280" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G280" s="7"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D282" s="7"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="285">
+    </row>
+    <row r="285" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>0</v>
       </c>
@@ -6648,7 +6666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
@@ -6659,20 +6677,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D287" s="3"/>
       <c r="F287" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>10</v>
       </c>
@@ -6681,11 +6699,11 @@
       </c>
       <c r="D288" s="4"/>
       <c r="F288" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G288" s="4"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>13</v>
       </c>
@@ -6702,24 +6720,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>84</v>
       </c>
@@ -6736,24 +6754,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>73</v>
       </c>
@@ -6770,24 +6788,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
         <v>82</v>
       </c>
@@ -6804,160 +6822,160 @@
         <v>53</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A298" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D298" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D297" s="5" t="s">
+      <c r="F298" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F297" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G297" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="5" t="s">
+      <c r="G298" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A299" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D298" s="5" t="s">
+      <c r="C299" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A300" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F298" s="5" t="s">
+      <c r="C300" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G298" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="5" t="s">
+      <c r="F300" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A301" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D299" s="5" t="s">
+      <c r="C301" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D301" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F301" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="G299" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="5" t="s">
+      <c r="G301" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A302" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D300" s="5" t="s">
+      <c r="C302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D302" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F300" s="5" t="s">
+      <c r="F302" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G300" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="5" t="s">
+      <c r="G302" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A303" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F303" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D301" s="5" t="s">
+      <c r="G303" s="7"/>
+    </row>
+    <row r="304" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A304" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F301" s="5" t="s">
+      <c r="C305" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G301" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="5" t="s">
+      <c r="D305" s="7"/>
+    </row>
+    <row r="307" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F302" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G302" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F303" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G303" s="7"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D305" s="7"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="308">
+    </row>
+    <row r="308" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>0</v>
       </c>
@@ -6968,7 +6986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
@@ -6979,20 +6997,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D310" s="3"/>
       <c r="F310" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>10</v>
       </c>
@@ -7001,11 +7019,11 @@
       </c>
       <c r="D311" s="4"/>
       <c r="F311" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>13</v>
       </c>
@@ -7022,24 +7040,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G313" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>71</v>
       </c>
@@ -7056,7 +7074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A315" s="5" t="s">
         <v>73</v>
       </c>
@@ -7073,58 +7091,58 @@
         <v>53</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G316" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G317" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G318" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
         <v>82</v>
       </c>
@@ -7141,113 +7159,113 @@
         <v>53</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G321" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A323" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D322" s="5" t="s">
+      <c r="C323" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F322" s="5" t="s">
+      <c r="F323" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G322" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F323" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="G323" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D324" s="5"/>
       <c r="F324" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G324" s="7"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A325" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D325" s="5"/>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D326" s="7"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>0</v>
       </c>
@@ -7258,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>3</v>
       </c>
@@ -7269,20 +7287,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D331" s="3"/>
       <c r="F331" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>10</v>
       </c>
@@ -7291,11 +7309,11 @@
       </c>
       <c r="D332" s="4"/>
       <c r="F332" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G332" s="4"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>13</v>
       </c>
@@ -7312,24 +7330,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G334" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
         <v>195</v>
       </c>
@@ -7346,7 +7364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
         <v>71</v>
       </c>
@@ -7363,9 +7381,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>76</v>
@@ -7380,7 +7398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
         <v>73</v>
       </c>
@@ -7397,58 +7415,58 @@
         <v>53</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A340" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F339" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G339" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="C340" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G340" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G341" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>82</v>
       </c>
@@ -7465,7 +7483,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
         <v>53</v>
       </c>
@@ -7482,7 +7500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A344" s="5" t="s">
         <v>178</v>
       </c>
@@ -7499,96 +7517,96 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G345" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G346" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G347" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D348" s="5"/>
       <c r="F348" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G348" s="7"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A349" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D350" s="7"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="353">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>0</v>
       </c>
@@ -7599,7 +7617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>3</v>
       </c>
@@ -7610,20 +7628,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D355" s="3"/>
       <c r="F355" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>10</v>
       </c>
@@ -7632,11 +7650,11 @@
       </c>
       <c r="D356" s="4"/>
       <c r="F356" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>13</v>
       </c>
@@ -7653,41 +7671,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D358" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F358" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G358" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D359" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F359" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G359" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
         <v>73</v>
       </c>
@@ -7695,135 +7713,135 @@
         <v>76</v>
       </c>
       <c r="D360" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F360" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D361" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F361" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G361" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D362" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F362" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D363" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F363" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D364" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="F364" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A365" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D365" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="F365" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A366" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C364" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D364" s="28" t="s">
+      <c r="C366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="F364" s="28" t="s">
+      <c r="F366" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G364" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="5" t="s">
+      <c r="G366" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A367" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D365" s="28" t="s">
+      <c r="C367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F365" s="28" t="s">
+      <c r="F367" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="G365" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D366" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="F366" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="G366" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D367" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="F367" s="28" t="s">
-        <v>366</v>
-      </c>
       <c r="G367" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
         <v>71</v>
       </c>
@@ -7840,79 +7858,79 @@
         <v>53</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D369" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="F369" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A370" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D369" s="28" t="s">
+      <c r="C370" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D370" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="F369" s="28" t="s">
+      <c r="F370" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="G369" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D370" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="F370" s="28" t="s">
-        <v>370</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D371" s="5"/>
       <c r="F371" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D372" s="5"/>
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D373" s="7"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="377">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>0</v>
       </c>
@@ -7923,7 +7941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>3</v>
       </c>
@@ -7934,20 +7952,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D379" s="3"/>
       <c r="F379" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>10</v>
       </c>
@@ -7956,11 +7974,11 @@
       </c>
       <c r="D380" s="4"/>
       <c r="F380" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G380" s="29"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A381" s="5" t="s">
         <v>13</v>
       </c>
@@ -7977,313 +7995,313 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G382" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F383" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G383" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A384" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C383" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D383" s="1" t="s">
+      <c r="C384" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D384" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F383" s="14" t="s">
+      <c r="F384" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="G383" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="5" t="s">
+      <c r="G384" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A385" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C384" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D384" s="1" t="s">
+      <c r="C385" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F384" s="14" t="s">
+      <c r="F385" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="G384" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="5" t="s">
+      <c r="G385" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A386" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C385" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F385" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G385" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="C386" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G386" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F387" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G387" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A388" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D387" s="1" t="s">
+      <c r="C388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F387" s="14" t="s">
+      <c r="F388" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="G387" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F388" s="14" t="s">
-        <v>385</v>
       </c>
       <c r="G388" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F389" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G389" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A390" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C389" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D389" s="1" t="s">
+      <c r="C390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F389" s="14" t="s">
+      <c r="F390" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G389" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="5" t="s">
+      <c r="G390" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A391" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C390" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D390" s="1" t="s">
+      <c r="C391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F390" s="14" t="s">
+      <c r="F391" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="G390" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="5" t="s">
+      <c r="G391" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A392" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D391" s="1" t="s">
+      <c r="C392" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F391" s="14" t="s">
+      <c r="F392" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="G391" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="5" t="s">
+      <c r="G392" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A393" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C392" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D392" s="1" t="s">
+      <c r="C393" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D393" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F392" s="14" t="s">
+      <c r="F393" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G392" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="5" t="s">
+      <c r="G393" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A394" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C393" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D393" s="1" t="s">
+      <c r="C394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D394" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F393" s="14" t="s">
+      <c r="F394" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="G393" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="5" t="s">
+      <c r="G394" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A395" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C394" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D394" s="1" t="s">
+      <c r="C395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D395" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F394" s="14" t="s">
+      <c r="F395" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="G394" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="5" t="s">
+      <c r="G395" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A396" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C395" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D395" s="1" t="s">
+      <c r="C396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D396" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F395" s="14" t="s">
+      <c r="F396" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="G395" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="5" t="s">
+      <c r="G396" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A397" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D396" s="1" t="s">
+      <c r="C397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D397" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F396" s="14" t="s">
+      <c r="F397" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G396" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="5" t="s">
+      <c r="G397" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A398" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F398" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C397" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D397" s="1" t="s">
+      <c r="G398" s="7"/>
+    </row>
+    <row r="399" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A399" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D400" s="7"/>
+    </row>
+    <row r="402" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F397" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="G397" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F398" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G398" s="7"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D400" s="7"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="403">
+    </row>
+    <row r="403" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>0</v>
       </c>
@@ -8294,7 +8312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>3</v>
       </c>
@@ -8305,20 +8323,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D405" s="3"/>
       <c r="F405" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>10</v>
       </c>
@@ -8327,11 +8345,11 @@
       </c>
       <c r="D406" s="4"/>
       <c r="F406" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A407" s="5" t="s">
         <v>13</v>
       </c>
@@ -8346,10 +8364,10 @@
         <v>45</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="408">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="s">
         <v>58</v>
       </c>
@@ -8364,207 +8382,207 @@
         <v>58</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="409">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A409" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B409" s="28"/>
       <c r="C409" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F409" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B410" s="28"/>
       <c r="C410" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F410" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B411" s="28"/>
       <c r="C411" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D411" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F411" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="412">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B412" s="28"/>
       <c r="C412" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F412" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="413">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B413" s="28"/>
       <c r="C413" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F413" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B414" s="28"/>
       <c r="C414" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F414" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G414" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A415" s="7" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="B415" s="28"/>
       <c r="C415" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D415" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F415" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F415" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="G415" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="416">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A416" s="28"/>
       <c r="B416" s="28"/>
       <c r="C416" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A417" s="28"/>
       <c r="B417" s="28"/>
       <c r="C417" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F417" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G417" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A418" s="28"/>
       <c r="B418" s="28"/>
       <c r="C418" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F418" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G418" s="7"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A419" s="28"/>
       <c r="B419" s="28"/>
       <c r="C419" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D419" s="7"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A420" s="28"/>
       <c r="B420" s="28"/>
       <c r="C420" s="28"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A425" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>